--- a/outputs/result_count.xlsx
+++ b/outputs/result_count.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>token_used</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>total_questions</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Execution Accuracy</t>
         </is>
@@ -508,9 +513,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>319866</v>
+      </c>
+      <c r="J2" t="n">
         <v>55</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.2545454545454545</v>
       </c>
     </row>
@@ -542,9 +550,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>408487</v>
+      </c>
+      <c r="J3" t="n">
         <v>55</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.1636363636363636</v>
       </c>
     </row>
@@ -576,9 +587,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
+        <v>454767</v>
+      </c>
+      <c r="J4" t="n">
         <v>55</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.6545454545454545</v>
       </c>
     </row>
@@ -610,9 +624,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>408494</v>
+      </c>
+      <c r="J5" t="n">
         <v>55</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.6727272727272727</v>
       </c>
     </row>
@@ -644,9 +661,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>436057</v>
+      </c>
+      <c r="J6" t="n">
         <v>55</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -678,9 +698,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>439947</v>
+      </c>
+      <c r="J7" t="n">
         <v>55</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.7090909090909091</v>
       </c>
     </row>
@@ -712,9 +735,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>401771</v>
+      </c>
+      <c r="J8" t="n">
         <v>55</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.7272727272727273</v>
       </c>
     </row>
@@ -746,9 +772,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>311176</v>
+      </c>
+      <c r="J9" t="n">
         <v>55</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.6181818181818182</v>
       </c>
     </row>

--- a/outputs/result_count.xlsx
+++ b/outputs/result_count.xlsx
@@ -714,25 +714,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>401771</v>
@@ -741,7 +741,7 @@
         <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
